--- a/Product-Backlog-y-planificación-grupo-3.xlsx
+++ b/Product-Backlog-y-planificación-grupo-3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianr\Desktop\entregable6_grupo3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianr\Documents\proyecto_final\Mundialitis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>https://trello.com/b/UlR23Ce5</t>
+  </si>
+  <si>
+    <t>Proceso</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +257,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -284,14 +293,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -321,6 +324,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,27 +720,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.5546875" style="4"/>
+    <col min="2" max="2" width="47.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="2"/>
     <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1"/>
@@ -736,133 +749,133 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>10</v>
       </c>
       <c r="D2"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
       <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>10</v>
       </c>
       <c r="D3"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="7"/>
       <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
       <c r="D4"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="5"/>
       <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
       <c r="D5"/>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>10</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>7</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>10</v>
       </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11"/>
@@ -875,13 +888,13 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="17"/>
       <c r="E13" t="s">
         <v>20</v>
       </c>
@@ -890,584 +903,586 @@
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>9</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>7</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>8</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12">
+      <c r="D16" s="9"/>
+      <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>7</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>7</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>7</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>9</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="7">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>2</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="7">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>2</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="7">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="5">
+        <v>3</v>
+      </c>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="7">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>2</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="7">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="5">
+        <v>3</v>
+      </c>
+      <c r="G25" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>1</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7">
+      <c r="D26" s="9"/>
+      <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="7">
+      <c r="D27" s="9"/>
+      <c r="E27" s="5">
         <v>2</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="7">
+      <c r="D28" s="9"/>
+      <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>1</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7">
+      <c r="D29" s="9"/>
+      <c r="E29" s="5">
         <v>2</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>2</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="11">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="7">
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="5">
         <v>4</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="11">
-        <v>3</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="7">
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="5">
         <v>4</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="11">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="7">
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="5">
         <v>4</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="11">
-        <v>3</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="7">
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="5">
         <v>4</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="11">
-        <v>3</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="7">
+      <c r="C35" s="9">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="5">
         <v>4</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="11">
-        <v>3</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="7">
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="5">
         <v>4</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="11">
-        <v>3</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="7">
+      <c r="C37" s="9">
+        <v>3</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="5">
         <v>4</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="11">
-        <v>3</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7">
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="5">
         <v>4</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="7">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="5">
         <v>4</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>4</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12">
-        <v>5</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="10">
+        <v>5</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>4</v>
       </c>
-      <c r="D41" s="11">
-        <v>5</v>
-      </c>
-      <c r="E41" s="12">
-        <v>5</v>
-      </c>
-      <c r="G41" s="1"/>
+      <c r="D41" s="9">
+        <v>5</v>
+      </c>
+      <c r="E41" s="10">
+        <v>5</v>
+      </c>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <v>4</v>
       </c>
-      <c r="D42" s="11">
-        <v>5</v>
-      </c>
-      <c r="E42" s="12">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1"/>
+      <c r="D42" s="9">
+        <v>5</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5</v>
+      </c>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <v>4</v>
       </c>
-      <c r="D43" s="11">
-        <v>5</v>
-      </c>
-      <c r="E43" s="12">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1"/>
+      <c r="D43" s="9">
+        <v>5</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5</v>
+      </c>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>6</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12">
-        <v>5</v>
-      </c>
-      <c r="G44" s="1"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10">
+        <v>5</v>
+      </c>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>10</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="7">
-        <v>5</v>
-      </c>
-      <c r="G45" s="1"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>10</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="7">
-        <v>5</v>
-      </c>
-      <c r="G46" s="1"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="5">
+        <v>5</v>
+      </c>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="7">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="5">
+        <v>5</v>
+      </c>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="7">
-        <v>5</v>
-      </c>
-      <c r="G48" s="1"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="5">
+        <v>5</v>
+      </c>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="15" t="s">
         <v>63</v>
       </c>
     </row>
